--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T15:21:17+00:00</t>
+    <t>2024-09-06T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T16:42:31+00:00</t>
+    <t>2024-09-06T21:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T21:25:34+00:00</t>
+    <t>2024-09-10T20:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T20:59:56+00:00</t>
+    <t>2024-09-16T23:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:28:14+00:00</t>
+    <t>2024-09-17T14:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:31:31+00:00</t>
+    <t>2024-09-17T18:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:49:04+00:00</t>
+    <t>2024-09-17T23:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T23:38:01+00:00</t>
+    <t>2024-09-21T00:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-21T00:47:01+00:00</t>
+    <t>2024-09-22T11:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>92</v>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T11:40:07+00:00</t>
+    <t>2024-09-23T01:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T01:04:09+00:00</t>
+    <t>2024-10-22T17:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:57:32+00:00</t>
+    <t>2024-10-22T17:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:59:45+00:00</t>
+    <t>2024-10-23T15:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T15:58:47+00:00</t>
+    <t>2024-10-23T18:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:44:18+00:00</t>
+    <t>2024-10-23T18:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:49:00+00:00</t>
+    <t>2024-10-24T19:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T19:50:25+00:00</t>
+    <t>2024-10-25T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-progress-score-observation.xlsx
+++ b/StructureDefinition-pco-progress-score-observation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-progress-score-observation</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-progress-score-observation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,25 +60,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T20:06:08+00:00</t>
+    <t>2024-11-25T08:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC</t>
+    <t>HL7 International / Patient Care</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC (http://mtnlotus.com)</t>
+    <t>HL7 International / Patient Care (http://www.hl7.org/Special/committees/patientcare, patientcare@lists.HL7.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -753,7 +753,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-profile)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile)
 </t>
   </si>
   <si>
